--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step4_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step4_Initial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.10.xlsm 2018-08-14 17-33-15\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.05.xlsm 2018-09-19\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,9 +43,6 @@
     <t>per unit of annual capacity</t>
   </si>
   <si>
-    <t>Annual Capacity</t>
-  </si>
-  <si>
     <t>Year 1 selling price</t>
   </si>
   <si>
@@ -113,18 +110,22 @@
   </si>
   <si>
     <t>NPV of profits</t>
+  </si>
+  <si>
+    <t>Annual capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -272,7 +273,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -284,18 +285,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -311,11 +307,45 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -411,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -446,7 +476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -635,13 +665,13 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
@@ -651,7 +681,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="17">
         <v>400000</v>
       </c>
       <c r="C1" s="1"/>
@@ -660,7 +690,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="18">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -669,67 +699,67 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11">
         <v>300000</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
         <v>420000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
         <v>60000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
         <v>0.15</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
@@ -737,9 +767,9 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
         <f>B8*B9</f>
         <v>4.9999999999999996E-2</v>
       </c>
@@ -747,118 +777,118 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
         <v>0.05</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20">
         <v>1</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="23">
         <f>C15+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="23">
         <f t="shared" ref="E15:L15" si="0">D15+1</f>
         <v>3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="22">
+      <c r="B16" s="28">
         <v>40909</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="28">
         <v>41455</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="29">
         <f>C16+365</f>
         <v>41820</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="29">
         <f t="shared" ref="E16:L16" si="1">D16+365</f>
         <v>42185</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>42550</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>42915</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="29">
         <f t="shared" si="1"/>
         <v>43280</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="29">
         <f t="shared" si="1"/>
         <v>43645</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="29">
         <f t="shared" si="1"/>
         <v>44010</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="29">
         <f t="shared" si="1"/>
         <v>44375</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="29">
         <f t="shared" si="1"/>
         <v>44740</v>
       </c>
@@ -866,20 +896,29 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="23">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -892,9 +931,9 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24">
+        <v>16</v>
+      </c>
+      <c r="C19" s="27">
         <f>B5-B6*B4</f>
         <v>240000</v>
       </c>
@@ -910,9 +949,9 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -926,7 +965,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -942,9 +981,9 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -958,7 +997,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -974,9 +1013,9 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -990,7 +1029,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1006,33 +1045,33 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step4_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step4_Initial.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Plant fixed cost</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Cost per unit of capacity</t>
   </si>
   <si>
-    <t>per unit of annual capacity</t>
-  </si>
-  <si>
     <t>Year 1 selling price</t>
   </si>
   <si>
@@ -83,12 +80,6 @@
   </si>
   <si>
     <t>Demand</t>
-  </si>
-  <si>
-    <t>Demand if product is given away</t>
-  </si>
-  <si>
-    <t>Reduction in demand for each $1 price increase</t>
   </si>
   <si>
     <t>Units Sold</t>
@@ -125,7 +116,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -219,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -237,6 +228,47 @@
       <top style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDD9C4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDD9C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDD9C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDD9C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
@@ -273,10 +305,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,33 +320,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -340,10 +344,42 @@
     <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -381,6 +417,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDD9C4"/>
       <color rgb="FFFFCC66"/>
       <color rgb="FFB7E4FA"/>
       <color rgb="FF199ED5"/>
@@ -665,413 +702,392 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
+    <col min="3" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="23">
         <v>400000</v>
       </c>
-      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="24">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11">
-        <v>300000</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="27">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
-        <v>420000</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="27">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
-        <v>60000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="29">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="B9" s="30">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
         <f>B8*B9</f>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10">
         <v>1</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="13">
         <f>C15+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="13">
         <f t="shared" ref="E15:L15" si="0">D15+1</f>
         <v>3</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="28">
+      <c r="B16" s="18">
         <v>40909</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="18">
         <v>41455</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="19">
         <f>C16+365</f>
         <v>41820</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="19">
         <f t="shared" ref="E16:L16" si="1">D16+365</f>
         <v>42185</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="19">
+        <f>E16+366</f>
+        <v>42551</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="1"/>
-        <v>42550</v>
-      </c>
-      <c r="G16" s="29">
+        <v>42916</v>
+      </c>
+      <c r="H16" s="19">
         <f t="shared" si="1"/>
-        <v>42915</v>
-      </c>
-      <c r="H16" s="29">
+        <v>43281</v>
+      </c>
+      <c r="I16" s="19">
         <f t="shared" si="1"/>
-        <v>43280</v>
-      </c>
-      <c r="I16" s="29">
+        <v>43646</v>
+      </c>
+      <c r="J16" s="19">
+        <f>I16+366</f>
+        <v>44012</v>
+      </c>
+      <c r="K16" s="19">
         <f t="shared" si="1"/>
-        <v>43645</v>
-      </c>
-      <c r="J16" s="29">
+        <v>44377</v>
+      </c>
+      <c r="L16" s="19">
         <f t="shared" si="1"/>
-        <v>44010</v>
-      </c>
-      <c r="K16" s="29">
-        <f t="shared" si="1"/>
-        <v>44375</v>
-      </c>
-      <c r="L16" s="29">
-        <f t="shared" si="1"/>
-        <v>44740</v>
-      </c>
-      <c r="M16" s="6"/>
+        <v>44742</v>
+      </c>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="27">
+      <c r="C19" s="17">
         <f>B5-B6*B4</f>
         <v>240000</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step4_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step4_Initial.xlsx
@@ -305,13 +305,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -319,7 +318,6 @@
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -699,395 +697,371 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
     <col min="3" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="21">
         <v>400000</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>420000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>60000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="28">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <f>B8*B9</f>
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="28">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f>C15+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <f t="shared" ref="E15:L15" si="0">D15+1</f>
         <v>3</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <v>40909</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>41455</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <f>C16+365</f>
         <v>41820</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <f t="shared" ref="E16:L16" si="1">D16+365</f>
         <v>42185</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <f>E16+366</f>
         <v>42551</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <f t="shared" si="1"/>
         <v>42916</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f t="shared" si="1"/>
         <v>43281</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <f t="shared" si="1"/>
         <v>43646</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <f>I16+366</f>
         <v>44012</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="17">
         <f t="shared" si="1"/>
         <v>44377</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <f t="shared" si="1"/>
         <v>44742</v>
       </c>
-      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <f>B5-B6*B4</f>
         <v>240000</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="B27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
